--- a/数据整理/stocks/A股/深证主板/002518-科士达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002518-科士达.xlsx
@@ -1,144 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>166011</t>
-  </si>
-  <si>
-    <t>001306</t>
-  </si>
-  <si>
-    <t>001888</t>
-  </si>
-  <si>
-    <t>004233</t>
-  </si>
-  <si>
-    <t>001307</t>
-  </si>
-  <si>
-    <t>中欧盛世成长混合 (LOF) -A</t>
-  </si>
-  <si>
-    <t>中欧永裕混合A</t>
-  </si>
-  <si>
-    <t>中欧盛世成长混合 (LOF) -E</t>
-  </si>
-  <si>
-    <t>中欧盛世成长混合 (LOF) -C</t>
-  </si>
-  <si>
-    <t>中欧永裕混合C</t>
-  </si>
-  <si>
-    <t>6.87</t>
-  </si>
-  <si>
-    <t>5.38</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>0.48</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>86.36</t>
-  </si>
-  <si>
-    <t>86.53</t>
-  </si>
-  <si>
-    <t>3.64</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>0.2501</t>
-  </si>
-  <si>
-    <t>0.1974</t>
-  </si>
-  <si>
-    <t>0.0193</t>
-  </si>
-  <si>
-    <t>0.0175</t>
-  </si>
-  <si>
-    <t>0.0099</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -463,167 +446,299 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002518-科士达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002518-科士达.xlsx
@@ -713,12 +713,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002518-科士达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002518-科士达.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -697,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,17 +709,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -728,13 +749,673 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6115</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3232</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014833</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008162</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.49</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002518-科士达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002518-科士达.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,243 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>166011</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.87</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2501</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.27</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001306</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧永裕混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1974</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001888</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -E</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004233</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0175</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001307</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧永裕混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.53</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1362,64 +1184,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.27</v>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2501</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.49</v>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002518-科士达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002518-科士达.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="D2" t="n">
-        <v>2.27</v>
+        <v>15.13</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -515,6 +532,3596 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3487</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1695</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9688</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城优化升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8701</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7965</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014833</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7719</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6903</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5813</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5312</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4315</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3851</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3347</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013274</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城优化升级混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3318</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2870</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2789</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时特许价值混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2765</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012500</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时汇荣回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>59.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014243</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001125</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160324</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>67.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013104</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013103</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>40.24</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012779</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合（LOF）E</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>77.85</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012501</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时汇荣回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>59.93</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003697</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华夏睿磐泰盛混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012780</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博时移动互联主题混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>74.12</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>002584</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004212</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中融量化智选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>75.75</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014471</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>016214</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富安达长盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004783</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1178,7 +4785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002518-科士达.xlsx
+++ b/数据整理/stocks/A股/深证主板/002518-科士达.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="D2" t="n">
-        <v>15.13</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="D3" t="n">
-        <v>2.27</v>
+        <v>15.13</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -532,6 +549,5830 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H153"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2924</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014833</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5955</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2608</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007340</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1737</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009645</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1677</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0191</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012382</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9036</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8984</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城优化升级混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8489</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>050009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7973</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7388</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利景气领航两年持有混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6678</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6614</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6602</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009092</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6539</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>20.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6267</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5895</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5308</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5248</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4810</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4766</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012800</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4654</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3901</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3820</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013274</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城优化升级混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.59</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3319</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华富新能源股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3052</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2879</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2469</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013113</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时博盈稳健6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时特许价值混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2139</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012500</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时汇荣回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014243</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国新材料新能源混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1854</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>580002</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013114</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时博盈稳健6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012383</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利新兴景气龙头混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014807</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007067</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007341</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>015576</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>015900</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方阿尔法兴科一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007066</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浦银安盛先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015320</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>博时汇誉回报混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>54.52</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>050014</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时创业成长混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004434</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000796</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013007</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>上投摩根景气甄选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002595</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时工业4.0主题股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004435</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000794</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>宝盈睿丰创新灵活配置混合 - A/B</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>85.35</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>015901</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东方阿尔法兴科一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013771</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>013772</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中加龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>012501</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时汇荣回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011874</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002172</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014808</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>519130</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>海富通新内需灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011875</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>博时先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>013470</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>泰信低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>015466</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博时汇誉回报混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>54.52</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013469</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>泰信低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>015321</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>长江新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>77.09</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>015172</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014556</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>002553</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>博时创业成长混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>79.42</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>015467</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>太平中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>68.96</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>016263</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>68.96</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>015174</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>62.99</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>014557</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011241</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>东吴价值成长双动力混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4121,7 +9962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4785,7 +10626,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
